--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -277,19 +277,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>火柴1：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴2：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff倒计时结束不触发则团灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘+30s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鹅的幻影，连线4人并向其移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴3：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴玩家发出的视线，小女孩免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触碰到任何玩家则造成小范围AOE并消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见PPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴4：（梦幻paradise）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独触发时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏aoe，无dot，无易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>温暖值回复100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火柴1：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火柴2：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>debuff倒计时结束不触发则团灭</t>
+    <t>梦幻paradise后半点名一个H小女孩debuff，初始温暖值20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场机制未达到条件：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场机制时若达到条件：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机5人被点名火柴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机两人被点名火柴4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复10温暖值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共回复20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘+6s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩因温暖值不足死亡，团灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5根火柴一个一个点共回复50温暖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+15s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -297,119 +389,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4个玩家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烤鹅的幻影，连线4人并向其移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触碰到小女孩则回复10温暖值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多共回复40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>’+12s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火柴3：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火柴玩家发出的视线，小女孩免疫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触碰到任何玩家则造成小范围AOE并消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>见PPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火柴4：（梦幻paradise）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单独触发时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全屏aoe，无dot，无易伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>温暖值回复100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻paradise后半点名一个H小女孩debuff，初始温暖值20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧场机制未达到条件：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧场机制时若达到条件：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机5人被点名火柴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机两人被点名火柴4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复10温暖值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共回复20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘+6s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小女孩因温暖值不足死亡，团灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5根火柴一个一个点共回复50温暖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>’+15s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘+30s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>在小女孩旁边出现奶奶的幻影（幻影无实际机制，持续到机制结束或小女孩死亡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>没有人会看向小女孩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑过30s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活20s才能处理机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗大约15s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场 - マッチ売りの少女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶的幻影存在且4根同时触发时，造成所有玩家血量上限-1的固定伤害（可被盾减伤，不会被百分比减伤），获得hot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏aoe+3s易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴2和3复合以尽快结束机制保证温暖值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞树幻影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后有流星划过，划过时判定温暖值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后剧场闭幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗时间9s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触碰到小女孩则回复20温暖值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多共回复80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+24s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff状态：火柴——点燃的火柴（持续有限时间）——消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃时间9s，每3s跳dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时温暖值回复100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩70温暖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3s-3s-3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉球，大球变小球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩30时点燃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’-9s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘-6s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’-6s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff点燃时间24s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩50时点燃，剩20时触发第一个鹅，最后温暖50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘大球-6s-3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff相同，倒计时不同（10s，30s，50s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>megaflare？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -438,54 +542,6 @@
       </rPr>
       <t>触发机制</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撑过30s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活20s才能处理机制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗时间6s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗大约15s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧场 - マッチ売りの少女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶奶的幻影存在且4根同时触发时，造成所有玩家血量上限-1的固定伤害（可被盾减伤，不会被百分比减伤），获得hot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9s dot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全屏aoe+3s易伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火柴2和3复合以尽快结束机制保证温暖值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞树幻影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后有流星划过，划过时判定温暖值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随后剧场闭幕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -626,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,6 +703,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1260,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,6 +1334,8 @@
     <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
@@ -1434,7 +1501,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1515,7 +1582,10 @@
         <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
       </c>
       <c r="L58" t="s">
         <v>63</v>
@@ -1534,18 +1604,18 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -1558,16 +1628,21 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>49</v>
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -1575,98 +1650,142 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
       <c r="C70" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
-      <c r="C73" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" t="s">
-        <v>72</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H73" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="12"/>
+      <c r="C74" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="12"/>
       <c r="D75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="12"/>
       <c r="D76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
         <v>109</v>
       </c>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C78" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="F77" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="G79" s="8" t="s">
-        <v>101</v>
+      <c r="I77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J78" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G80" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D82" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="12"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -1678,10 +1797,10 @@
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="12"/>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
@@ -1690,28 +1809,28 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="12"/>
       <c r="C92" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="12"/>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M93" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="12"/>
       <c r="M94" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
@@ -1720,28 +1839,28 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="12"/>
       <c r="C96" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L96" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="12"/>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="12"/>
       <c r="E98" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="5"/>
     </row>
@@ -1751,19 +1870,19 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="12"/>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="12"/>
       <c r="E101" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H101" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
@@ -1772,10 +1891,10 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="12"/>
       <c r="D103" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剩30时点燃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>’-9s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -506,10 +502,6 @@
   </si>
   <si>
     <t>‘大球-6s-3s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff相同，倒计时不同（10s，30s，50s）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -542,6 +534,94 @@
       </rPr>
       <t>触发机制</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩30-40时点燃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃火柴1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴1结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃火柴2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞球1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞球2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞球3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞球4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃火柴3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散AOE x4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔判定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60-80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff相同，倒计时不同（10s，17s，24s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现流星AOE范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星判定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +752,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -688,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,6 +810,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1323,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R103"/>
+  <dimension ref="A3:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S102" sqref="S102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,6 +1446,9 @@
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="18" max="18" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1499,7 +1610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>99</v>
       </c>
@@ -1508,12 +1619,12 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>43</v>
       </c>
@@ -1547,7 +1658,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>46</v>
       </c>
@@ -1564,7 +1675,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K56" t="s">
         <v>60</v>
       </c>
@@ -1572,12 +1683,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="L57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
         <v>39</v>
       </c>
@@ -1585,13 +1696,13 @@
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L58" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>41</v>
       </c>
@@ -1602,7 +1713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>73</v>
       </c>
@@ -1610,7 +1721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
         <v>74</v>
       </c>
@@ -1618,39 +1729,75 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
         <v>42</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O64" s="17">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O65" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>49</v>
       </c>
       <c r="E66" s="5"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O66" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O67" s="17">
+        <v>3</v>
+      </c>
+      <c r="P67" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q67" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O68" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="19"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O69" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="19"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
       <c r="C70" s="7" t="s">
         <v>66</v>
@@ -1658,14 +1805,25 @@
       <c r="D70" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O70" s="17">
+        <v>6</v>
+      </c>
+      <c r="P70">
+        <v>90</v>
+      </c>
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O71" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q71" s="19"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
         <v>113</v>
       </c>
@@ -1676,19 +1834,30 @@
         <v>107</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I72" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O72" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="19"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
       <c r="H73" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="O73" s="17">
+        <v>9</v>
+      </c>
+      <c r="P73">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="19"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A74" s="12"/>
       <c r="C74" s="7" t="s">
         <v>67</v>
@@ -1699,8 +1868,12 @@
       <c r="I74" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O74" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="19"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A75" s="12"/>
       <c r="D75" t="s">
         <v>75</v>
@@ -1711,23 +1884,36 @@
       <c r="I75" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O75" s="17">
+        <v>11</v>
+      </c>
+      <c r="Q75" s="19"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A76" s="12"/>
       <c r="D76" t="s">
         <v>108</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>115</v>
       </c>
       <c r="K76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="O76" s="17">
+        <v>12</v>
+      </c>
+      <c r="P76">
+        <v>70</v>
+      </c>
+      <c r="Q76" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
         <v>109</v>
       </c>
@@ -1735,167 +1921,523 @@
         <v>110</v>
       </c>
       <c r="I77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+      <c r="O77" s="17">
+        <v>13</v>
+      </c>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J78" s="10" t="s">
         <v>103</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O78" s="17">
+        <v>14</v>
+      </c>
+      <c r="T78" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C79" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D79" t="s">
         <v>104</v>
       </c>
-      <c r="H79" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="H79" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O79" s="17">
+        <v>15</v>
+      </c>
+      <c r="P79">
+        <v>60</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="T79" s="17">
+        <v>15</v>
+      </c>
+      <c r="U79">
+        <v>50</v>
+      </c>
+      <c r="V79" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="G80" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O80" s="17">
+        <v>16</v>
+      </c>
+      <c r="Q80" s="6"/>
+      <c r="T80" s="17">
+        <v>16</v>
+      </c>
+      <c r="V80" s="6"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="O81" s="17">
+        <v>17</v>
+      </c>
+      <c r="Q81" s="6"/>
+      <c r="T81" s="17">
+        <v>17</v>
+      </c>
+      <c r="V81" s="6"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D82" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D85" t="s">
+        <v>123</v>
+      </c>
+      <c r="O82" s="17">
+        <v>18</v>
+      </c>
+      <c r="P82">
+        <v>50</v>
+      </c>
+      <c r="Q82" s="6"/>
+      <c r="T82" s="17">
+        <v>18</v>
+      </c>
+      <c r="U82">
+        <v>40</v>
+      </c>
+      <c r="V82" s="6"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O83" s="17">
+        <v>19</v>
+      </c>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T83" s="17">
+        <v>19</v>
+      </c>
+      <c r="V83" s="6"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O84" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q84" s="6"/>
+      <c r="T84" s="17">
+        <v>20</v>
+      </c>
+      <c r="V84" s="6"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O85" s="17">
+        <v>21</v>
+      </c>
+      <c r="P85" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R85" t="s">
+        <v>138</v>
+      </c>
+      <c r="T85" s="17">
+        <v>21</v>
+      </c>
+      <c r="U85" t="s">
+        <v>135</v>
+      </c>
+      <c r="V85" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O86" s="17">
+        <v>22</v>
+      </c>
+      <c r="P86">
+        <v>60</v>
+      </c>
+      <c r="Q86" s="6"/>
+      <c r="T86" s="17">
+        <v>22</v>
+      </c>
+      <c r="U86">
+        <v>50</v>
+      </c>
+      <c r="V86" s="6"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O87" s="17">
+        <v>23</v>
+      </c>
+      <c r="Q87" s="6"/>
+      <c r="R87" t="s">
+        <v>137</v>
+      </c>
+      <c r="T87" s="17">
+        <v>23</v>
+      </c>
+      <c r="V87" s="6"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O88" s="17">
+        <v>24</v>
+      </c>
+      <c r="P88">
+        <v>50</v>
+      </c>
+      <c r="Q88" s="6"/>
+      <c r="T88" s="17">
+        <v>24</v>
+      </c>
+      <c r="U88" t="s">
+        <v>136</v>
+      </c>
+      <c r="V88" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O89" s="17">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="6"/>
+      <c r="T89" s="17">
+        <v>25</v>
+      </c>
+      <c r="U89">
+        <v>60</v>
+      </c>
+      <c r="V89" s="6"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O90" s="17">
+        <v>26</v>
+      </c>
+      <c r="P90" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T90" s="17">
+        <v>26</v>
+      </c>
+      <c r="V90" s="6"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O91" s="17">
+        <v>27</v>
+      </c>
+      <c r="P91">
+        <v>60</v>
+      </c>
+      <c r="Q91" s="6"/>
+      <c r="T91" s="17">
+        <v>27</v>
+      </c>
+      <c r="U91" t="s">
+        <v>140</v>
+      </c>
+      <c r="V91" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D86" t="s">
+      <c r="O92" s="17">
+        <v>28</v>
+      </c>
+      <c r="P92">
+        <v>50</v>
+      </c>
+      <c r="Q92" s="6"/>
+      <c r="R92" t="s">
+        <v>139</v>
+      </c>
+      <c r="T92" s="17">
+        <v>28</v>
+      </c>
+      <c r="U92">
+        <v>70</v>
+      </c>
+      <c r="V92" s="6"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="D93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A88" s="12"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A89" s="12"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A90" s="12"/>
-      <c r="C90" t="s">
+      <c r="O93" s="17">
+        <v>29</v>
+      </c>
+      <c r="Q93" s="6"/>
+      <c r="T93" s="17">
+        <v>29</v>
+      </c>
+      <c r="V93" s="6"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O94" s="17">
+        <v>30</v>
+      </c>
+      <c r="P94">
+        <v>40</v>
+      </c>
+      <c r="Q94" s="6"/>
+      <c r="T94" s="17">
+        <v>30</v>
+      </c>
+      <c r="U94" t="s">
+        <v>141</v>
+      </c>
+      <c r="V94" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A95" s="12"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="O95" s="17">
+        <v>31</v>
+      </c>
+      <c r="P95" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="T95" s="17">
+        <v>31</v>
+      </c>
+      <c r="U95">
+        <v>80</v>
+      </c>
+      <c r="V95" s="6"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A96" s="12"/>
+      <c r="O96" s="17">
+        <v>32</v>
+      </c>
+      <c r="P96">
+        <v>60</v>
+      </c>
+      <c r="Q96" s="6"/>
+      <c r="T96" s="17">
+        <v>32</v>
+      </c>
+      <c r="V96" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A97" s="12"/>
+      <c r="C97" t="s">
         <v>81</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A91" s="12"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A92" s="12"/>
-      <c r="C92" s="9" t="s">
+      <c r="O97" s="17">
+        <v>33</v>
+      </c>
+      <c r="P97">
+        <v>50</v>
+      </c>
+      <c r="Q97" s="6"/>
+      <c r="T97" s="17">
+        <v>33</v>
+      </c>
+      <c r="U97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A98" s="12"/>
+      <c r="O98" s="17">
+        <v>34</v>
+      </c>
+      <c r="Q98" s="6"/>
+      <c r="T98" s="17">
+        <v>34</v>
+      </c>
+      <c r="V98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A99" s="12"/>
+      <c r="C99" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="L99" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A93" s="12"/>
-      <c r="D93" t="s">
-        <v>84</v>
-      </c>
-      <c r="M93" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A94" s="12"/>
-      <c r="M94" t="s">
-        <v>87</v>
-      </c>
-      <c r="N94" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A95" s="12"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A96" s="12"/>
-      <c r="C96" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" t="s">
-        <v>78</v>
-      </c>
-      <c r="E96" t="s">
-        <v>79</v>
-      </c>
-      <c r="L96" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A97" s="12"/>
-      <c r="E97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A98" s="12"/>
-      <c r="E98" t="s">
-        <v>86</v>
-      </c>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A99" s="12"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="O99" s="17">
+        <v>35</v>
+      </c>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="18"/>
+      <c r="T99" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A100" s="12"/>
       <c r="D100" t="s">
+        <v>84</v>
+      </c>
+      <c r="M100" t="s">
+        <v>85</v>
+      </c>
+      <c r="O100" s="17">
+        <v>36</v>
+      </c>
+      <c r="P100" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T100" s="17">
+        <v>36</v>
+      </c>
+      <c r="U100">
+        <v>60</v>
+      </c>
+      <c r="V100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A101" s="12"/>
+      <c r="M101" t="s">
+        <v>87</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O101" s="17">
+        <v>37</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="T101" s="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A102" s="12"/>
+      <c r="O102" s="17">
+        <v>38</v>
+      </c>
+      <c r="P102">
+        <v>50</v>
+      </c>
+      <c r="T102" s="17">
+        <v>38</v>
+      </c>
+      <c r="U102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A103" s="12"/>
+      <c r="C103" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="L103" t="s">
+        <v>90</v>
+      </c>
+      <c r="O103" s="17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A104" s="12"/>
+      <c r="E104" t="s">
+        <v>94</v>
+      </c>
+      <c r="O104" s="17">
+        <v>40</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A105" s="12"/>
+      <c r="E105" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="V105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A107" s="12"/>
+      <c r="D107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A101" s="12"/>
-      <c r="E101" t="s">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A108" s="12"/>
+      <c r="E108" t="s">
         <v>80</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H108" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A102" s="12"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A103" s="12"/>
-      <c r="D103" t="s">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A110" s="12"/>
+      <c r="D110" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="V112" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B93E9F-6663-424A-861B-7CA91550C45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -624,11 +625,19 @@
     <t>流星判定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>黄圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄圈判定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,7 +865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -916,7 +931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -976,7 +997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1036,7 +1063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1096,7 +1129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1145,7 +1184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1220,6 +1259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1255,6 +1311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1430,28 +1503,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S102" sqref="S102"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R92" sqref="R92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="9.5" customWidth="1"/>
-    <col min="18" max="18" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1460,12 +1533,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -1496,7 +1569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1504,12 +1577,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>36</v>
       </c>
@@ -1523,12 +1596,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1558,7 +1631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>10</v>
       </c>
@@ -1580,37 +1653,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>99</v>
       </c>
@@ -1619,12 +1692,12 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>38</v>
       </c>
@@ -1641,7 +1714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>43</v>
       </c>
@@ -1658,7 +1731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>46</v>
       </c>
@@ -1675,7 +1748,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
         <v>60</v>
       </c>
@@ -1683,12 +1756,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>39</v>
       </c>
@@ -1702,7 +1775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>41</v>
       </c>
@@ -1713,7 +1786,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>73</v>
       </c>
@@ -1721,7 +1794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>74</v>
       </c>
@@ -1729,7 +1802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>42</v>
       </c>
@@ -1740,7 +1813,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>68</v>
       </c>
@@ -1751,7 +1824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>111</v>
       </c>
@@ -1759,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>49</v>
       </c>
@@ -1768,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O67" s="17">
         <v>3</v>
       </c>
@@ -1779,7 +1852,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -1791,13 +1864,13 @@
       </c>
       <c r="Q68" s="19"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O69" s="17">
         <v>5</v>
       </c>
       <c r="Q69" s="19"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="C70" s="7" t="s">
         <v>66</v>
@@ -1813,7 +1886,7 @@
       </c>
       <c r="Q70" s="19"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
         <v>112</v>
@@ -1823,7 +1896,7 @@
       </c>
       <c r="Q71" s="19"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>113</v>
       </c>
@@ -1844,7 +1917,7 @@
       </c>
       <c r="Q72" s="19"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="H73" s="14" t="s">
         <v>118</v>
@@ -1857,7 +1930,7 @@
       </c>
       <c r="Q73" s="19"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="C74" s="7" t="s">
         <v>67</v>
@@ -1873,7 +1946,7 @@
       </c>
       <c r="Q74" s="19"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="D75" t="s">
         <v>75</v>
@@ -1889,7 +1962,7 @@
       </c>
       <c r="Q75" s="19"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="D76" t="s">
         <v>108</v>
@@ -1913,7 +1986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>109</v>
       </c>
@@ -1930,7 +2003,7 @@
       <c r="U77" s="20"/>
       <c r="V77" s="20"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J78" s="10" t="s">
         <v>103</v>
       </c>
@@ -1943,7 +2016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C79" s="7" t="s">
         <v>72</v>
       </c>
@@ -1972,7 +2045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G80" s="8" t="s">
         <v>96</v>
       </c>
@@ -1985,7 +2058,7 @@
       </c>
       <c r="V80" s="6"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>125</v>
       </c>
@@ -1998,7 +2071,7 @@
       </c>
       <c r="V81" s="6"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="s">
         <v>123</v>
       </c>
@@ -2017,7 +2090,7 @@
       </c>
       <c r="V82" s="6"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O83" s="17">
         <v>19</v>
       </c>
@@ -2030,7 +2103,7 @@
       </c>
       <c r="V83" s="6"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O84" s="17">
         <v>20</v>
       </c>
@@ -2040,7 +2113,7 @@
       </c>
       <c r="V84" s="6"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O85" s="17">
         <v>21</v>
       </c>
@@ -2051,7 +2124,7 @@
         <v>130</v>
       </c>
       <c r="R85" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="T85" s="17">
         <v>21</v>
@@ -2063,7 +2136,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O86" s="17">
         <v>22</v>
       </c>
@@ -2079,20 +2152,17 @@
       </c>
       <c r="V86" s="6"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O87" s="17">
         <v>23</v>
       </c>
       <c r="Q87" s="6"/>
-      <c r="R87" t="s">
-        <v>137</v>
-      </c>
       <c r="T87" s="17">
         <v>23</v>
       </c>
       <c r="V87" s="6"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O88" s="17">
         <v>24</v>
       </c>
@@ -2100,6 +2170,9 @@
         <v>50</v>
       </c>
       <c r="Q88" s="6"/>
+      <c r="R88" t="s">
+        <v>137</v>
+      </c>
       <c r="T88" s="17">
         <v>24</v>
       </c>
@@ -2110,7 +2183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O89" s="17">
         <v>25</v>
       </c>
@@ -2123,7 +2196,7 @@
       </c>
       <c r="V89" s="6"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O90" s="17">
         <v>26</v>
       </c>
@@ -2133,12 +2206,15 @@
       <c r="Q90" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="R90" t="s">
+        <v>148</v>
+      </c>
       <c r="T90" s="17">
         <v>26</v>
       </c>
       <c r="V90" s="6"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O91" s="17">
         <v>27</v>
       </c>
@@ -2156,7 +2232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>105</v>
       </c>
@@ -2168,7 +2244,7 @@
       </c>
       <c r="Q92" s="6"/>
       <c r="R92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T92" s="17">
         <v>28</v>
@@ -2178,7 +2254,7 @@
       </c>
       <c r="V92" s="6"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>106</v>
       </c>
@@ -2191,7 +2267,7 @@
       </c>
       <c r="V93" s="6"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O94" s="17">
         <v>30</v>
       </c>
@@ -2209,7 +2285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
@@ -2235,7 +2311,7 @@
       </c>
       <c r="V95" s="6"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="O96" s="17">
         <v>32</v>
@@ -2251,7 +2327,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="C97" t="s">
         <v>81</v>
@@ -2273,7 +2349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="O98" s="17">
         <v>34</v>
@@ -2286,7 +2362,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="C99" s="9" t="s">
         <v>83</v>
@@ -2298,12 +2374,14 @@
         <v>35</v>
       </c>
       <c r="Q99" s="6"/>
-      <c r="R99" s="18"/>
+      <c r="R99" t="s">
+        <v>139</v>
+      </c>
       <c r="T99" s="17">
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="D100" t="s">
         <v>84</v>
@@ -2330,7 +2408,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="M101" t="s">
         <v>87</v>
@@ -2348,7 +2426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="O102" s="17">
         <v>38</v>
@@ -2363,7 +2441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="C103" s="7" t="s">
         <v>77</v>
@@ -2381,7 +2459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="E104" t="s">
         <v>94</v>
@@ -2393,7 +2471,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="E105" t="s">
         <v>86</v>
@@ -2403,16 +2481,16 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="D107" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="E108" t="s">
         <v>80</v>
@@ -2424,10 +2502,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="D110" t="s">
         <v>91</v>
@@ -2436,7 +2514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V112" s="18"/>
     </row>
   </sheetData>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B93E9F-6663-424A-861B-7CA91550C45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF410B5-DC48-425E-BD90-D0A2FED20F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -614,10 +614,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40-60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出现流星AOE范围</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -631,6 +627,18 @@
   </si>
   <si>
     <t>黄圈判定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>球变小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散aoe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,6 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1504,17 +1513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V112"/>
+  <dimension ref="A3:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R92" sqref="R92"/>
+    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T78" sqref="T78:V118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="12.21875" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" customWidth="1"/>
@@ -1522,6 +1531,7 @@
     <col min="14" max="14" width="10.77734375" customWidth="1"/>
     <col min="17" max="17" width="9.44140625" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2039,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="U79">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="V79" s="6" t="s">
         <v>129</v>
@@ -2086,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="U82">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V82" s="6"/>
     </row>
@@ -2117,70 +2127,81 @@
       <c r="O85" s="17">
         <v>21</v>
       </c>
-      <c r="P85" t="s">
-        <v>144</v>
+      <c r="P85">
+        <v>40</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="R85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T85" s="17">
         <v>21</v>
       </c>
-      <c r="U85" t="s">
-        <v>135</v>
+      <c r="U85">
+        <v>40</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O86" s="17">
         <v>22</v>
       </c>
-      <c r="P86">
-        <v>60</v>
-      </c>
       <c r="Q86" s="6"/>
       <c r="T86" s="17">
         <v>22</v>
       </c>
-      <c r="U86">
-        <v>50</v>
-      </c>
       <c r="V86" s="6"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>23</v>
+      </c>
+      <c r="I87" t="s">
+        <v>146</v>
+      </c>
       <c r="O87" s="17">
         <v>23</v>
       </c>
       <c r="Q87" s="6"/>
+      <c r="R87" t="s">
+        <v>137</v>
+      </c>
       <c r="T87" s="17">
         <v>23</v>
       </c>
       <c r="V87" s="6"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>149</v>
+      </c>
       <c r="O88" s="17">
         <v>24</v>
       </c>
-      <c r="P88">
-        <v>50</v>
-      </c>
-      <c r="Q88" s="6"/>
+      <c r="P88" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="R88" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="T88" s="17">
         <v>24</v>
       </c>
       <c r="U88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -2191,23 +2212,21 @@
       <c r="T89" s="17">
         <v>25</v>
       </c>
-      <c r="U89">
-        <v>60</v>
-      </c>
       <c r="V89" s="6"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s">
+        <v>147</v>
+      </c>
       <c r="O90" s="17">
         <v>26</v>
       </c>
-      <c r="P90" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q90" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q90" s="6"/>
       <c r="R90" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="T90" s="17">
         <v>26</v>
@@ -2218,39 +2237,38 @@
       <c r="O91" s="17">
         <v>27</v>
       </c>
-      <c r="P91">
-        <v>60</v>
-      </c>
-      <c r="Q91" s="6"/>
+      <c r="P91" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="T91" s="17">
         <v>27</v>
       </c>
       <c r="U91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>105</v>
       </c>
+      <c r="H92">
+        <v>26</v>
+      </c>
+      <c r="K92" t="s">
+        <v>138</v>
+      </c>
       <c r="O92" s="17">
         <v>28</v>
       </c>
-      <c r="P92">
-        <v>50</v>
-      </c>
       <c r="Q92" s="6"/>
-      <c r="R92" t="s">
-        <v>138</v>
-      </c>
       <c r="T92" s="17">
         <v>28</v>
-      </c>
-      <c r="U92">
-        <v>70</v>
       </c>
       <c r="V92" s="6"/>
     </row>
@@ -2258,6 +2276,12 @@
       <c r="D93" t="s">
         <v>106</v>
       </c>
+      <c r="H93">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s">
+        <v>150</v>
+      </c>
       <c r="O93" s="17">
         <v>29</v>
       </c>
@@ -2271,18 +2295,20 @@
       <c r="O94" s="17">
         <v>30</v>
       </c>
-      <c r="P94">
-        <v>40</v>
-      </c>
-      <c r="Q94" s="6"/>
+      <c r="P94" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="T94" s="17">
         <v>30</v>
       </c>
       <c r="U94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V94" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -2294,20 +2320,21 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
+      <c r="H95">
+        <v>31</v>
+      </c>
+      <c r="K95" t="s">
+        <v>139</v>
+      </c>
       <c r="O95" s="17">
         <v>31</v>
       </c>
-      <c r="P95" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q95" s="6" t="s">
-        <v>132</v>
+      <c r="Q95" s="6"/>
+      <c r="R95" t="s">
+        <v>139</v>
       </c>
       <c r="T95" s="17">
         <v>31</v>
-      </c>
-      <c r="U95">
-        <v>80</v>
       </c>
       <c r="V95" s="6"/>
     </row>
@@ -2316,16 +2343,11 @@
       <c r="O96" s="17">
         <v>32</v>
       </c>
-      <c r="P96">
-        <v>60</v>
-      </c>
       <c r="Q96" s="6"/>
       <c r="T96" s="17">
         <v>32</v>
       </c>
-      <c r="V96" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="V96" s="6"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
@@ -2338,15 +2360,23 @@
       <c r="O97" s="17">
         <v>33</v>
       </c>
-      <c r="P97">
-        <v>50</v>
-      </c>
-      <c r="Q97" s="6"/>
+      <c r="P97" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R97" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="T97" s="17">
         <v>33</v>
       </c>
-      <c r="U97">
-        <v>70</v>
+      <c r="U97" t="s">
+        <v>141</v>
+      </c>
+      <c r="V97" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -2358,9 +2388,7 @@
       <c r="T98" s="17">
         <v>34</v>
       </c>
-      <c r="V98" t="s">
-        <v>138</v>
-      </c>
+      <c r="V98" s="6"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
@@ -2374,12 +2402,10 @@
         <v>35</v>
       </c>
       <c r="Q99" s="6"/>
-      <c r="R99" t="s">
-        <v>139</v>
-      </c>
       <c r="T99" s="17">
         <v>35</v>
       </c>
+      <c r="V99" s="6"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
@@ -2392,20 +2418,20 @@
       <c r="O100" s="17">
         <v>36</v>
       </c>
-      <c r="P100" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q100" s="6" t="s">
-        <v>133</v>
+      <c r="P100">
+        <v>70</v>
+      </c>
+      <c r="R100" t="s">
+        <v>145</v>
       </c>
       <c r="T100" s="17">
         <v>36</v>
       </c>
       <c r="U100">
-        <v>60</v>
-      </c>
-      <c r="V100" t="s">
-        <v>137</v>
+        <v>70</v>
+      </c>
+      <c r="V100" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -2419,9 +2445,6 @@
       <c r="O101" s="17">
         <v>37</v>
       </c>
-      <c r="Q101" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="T101" s="17">
         <v>37</v>
       </c>
@@ -2431,14 +2454,11 @@
       <c r="O102" s="17">
         <v>38</v>
       </c>
-      <c r="P102">
-        <v>50</v>
-      </c>
       <c r="T102" s="17">
         <v>38</v>
       </c>
-      <c r="U102">
-        <v>50</v>
+      <c r="V102" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -2458,6 +2478,15 @@
       <c r="O103" s="17">
         <v>39</v>
       </c>
+      <c r="P103">
+        <v>60</v>
+      </c>
+      <c r="T103" s="17">
+        <v>39</v>
+      </c>
+      <c r="U103">
+        <v>60</v>
+      </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
@@ -2467,8 +2496,11 @@
       <c r="O104" s="17">
         <v>40</v>
       </c>
-      <c r="Q104" t="s">
-        <v>146</v>
+      <c r="T104" s="17">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -2477,18 +2509,33 @@
         <v>86</v>
       </c>
       <c r="F105" s="5"/>
+      <c r="T105" s="17">
+        <v>41</v>
+      </c>
       <c r="V105" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
+      <c r="T106" s="17">
+        <v>42</v>
+      </c>
+      <c r="U106">
+        <v>50</v>
+      </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="D107" t="s">
         <v>100</v>
       </c>
+      <c r="T107" s="17">
+        <v>43</v>
+      </c>
+      <c r="V107" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
@@ -2501,9 +2548,18 @@
       <c r="H108" s="10" t="s">
         <v>97</v>
       </c>
+      <c r="T108" s="17">
+        <v>44</v>
+      </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
+      <c r="T109" s="17">
+        <v>45</v>
+      </c>
+      <c r="U109">
+        <v>40</v>
+      </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
@@ -2513,9 +2569,64 @@
       <c r="G110" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="T110" s="17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T111" s="17">
+        <v>47</v>
+      </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V112" s="18"/>
+      <c r="T112" s="17">
+        <v>48</v>
+      </c>
+      <c r="U112">
+        <v>30</v>
+      </c>
+      <c r="V112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T113" s="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T114" s="17">
+        <v>50</v>
+      </c>
+      <c r="V114" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T115" s="17">
+        <v>51</v>
+      </c>
+      <c r="U115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T116" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="T117" s="17">
+        <v>53</v>
+      </c>
+      <c r="V117" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="20:22" x14ac:dyDescent="0.25">
+      <c r="U118">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF410B5-DC48-425E-BD90-D0A2FED20F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C0528-9D56-4480-9A33-40C8461C1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="174">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -641,12 +641,152 @@
     <t>分摊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ギミック経過秒数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖かさ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-&gt;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ1をトリガー（dot）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ1終わり</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ2をトリガー（4つの玉）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ3をトリガー</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉が小さくなる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可視円範囲予兆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-&gt;50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉1をぶつかる</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可視AOE x4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可視円範囲着弾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-&gt;60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉2をぶつかる</t>
+  </si>
+  <si>
+    <t>塔出現</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-&gt;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉3をぶつかる</t>
+  </si>
+  <si>
+    <t>60-&gt;80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉4をぶつかる</t>
+  </si>
+  <si>
+    <t>流星直線AOE予兆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ボスが再び出現、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>劇場閉幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を詠唱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劇場閉幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>詠唱完了、ダメージ判定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +860,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -809,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,6 +1003,27 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1513,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:V118"/>
+  <dimension ref="A3:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78:V118"/>
+    <sheetView tabSelected="1" topLeftCell="J86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA110" sqref="AA110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1834,7 +2026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>111</v>
       </c>
@@ -1842,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>49</v>
       </c>
@@ -1850,8 +2042,16 @@
       <c r="O66" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y66" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z66" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O67" s="17">
         <v>3</v>
       </c>
@@ -1861,8 +2061,16 @@
       <c r="Q67" s="19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y67" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="23">
+        <v>20</v>
+      </c>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -1873,14 +2081,26 @@
         <v>4</v>
       </c>
       <c r="Q68" s="19"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y68" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O69" s="17">
         <v>5</v>
       </c>
       <c r="Q69" s="19"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y69" s="22">
+        <v>2</v>
+      </c>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="C70" s="7" t="s">
         <v>66</v>
@@ -1895,8 +2115,18 @@
         <v>90</v>
       </c>
       <c r="Q70" s="19"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y70" s="22">
+        <v>3</v>
+      </c>
+      <c r="Z70" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA70" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB70" s="23"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
         <v>112</v>
@@ -1905,8 +2135,14 @@
         <v>7</v>
       </c>
       <c r="Q71" s="19"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y71" s="22">
+        <v>4</v>
+      </c>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="23"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>113</v>
       </c>
@@ -1926,8 +2162,14 @@
         <v>8</v>
       </c>
       <c r="Q72" s="19"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y72" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="23"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="H73" s="14" t="s">
         <v>118</v>
@@ -1939,8 +2181,16 @@
         <v>80</v>
       </c>
       <c r="Q73" s="19"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y73" s="22">
+        <v>6</v>
+      </c>
+      <c r="Z73" s="23">
+        <v>90</v>
+      </c>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="23"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="C74" s="7" t="s">
         <v>67</v>
@@ -1955,8 +2205,14 @@
         <v>10</v>
       </c>
       <c r="Q74" s="19"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y74" s="22">
+        <v>7</v>
+      </c>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="23"/>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="D75" t="s">
         <v>75</v>
@@ -1971,8 +2227,14 @@
         <v>11</v>
       </c>
       <c r="Q75" s="19"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y75" s="22">
+        <v>8</v>
+      </c>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="23"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="D76" t="s">
         <v>108</v>
@@ -1995,8 +2257,16 @@
       <c r="Q76" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y76" s="22">
+        <v>9</v>
+      </c>
+      <c r="Z76" s="23">
+        <v>80</v>
+      </c>
+      <c r="AA76" s="24"/>
+      <c r="AB76" s="23"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>109</v>
       </c>
@@ -2012,8 +2282,14 @@
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
       <c r="V77" s="20"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y77" s="22">
+        <v>10</v>
+      </c>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="24"/>
+      <c r="AB77" s="23"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J78" s="10" t="s">
         <v>103</v>
       </c>
@@ -2025,8 +2301,14 @@
       <c r="T78" s="17">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y78" s="22">
+        <v>11</v>
+      </c>
+      <c r="Z78" s="23"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="23"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C79" s="7" t="s">
         <v>72</v>
       </c>
@@ -2054,8 +2336,18 @@
       <c r="V79" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y79" s="22">
+        <v>12</v>
+      </c>
+      <c r="Z79" s="23">
+        <v>70</v>
+      </c>
+      <c r="AA79" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB79" s="23"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G80" s="8" t="s">
         <v>96</v>
       </c>
@@ -2067,8 +2359,14 @@
         <v>16</v>
       </c>
       <c r="V80" s="6"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y80" s="22">
+        <v>13</v>
+      </c>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="23"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
         <v>125</v>
       </c>
@@ -2080,8 +2378,14 @@
         <v>17</v>
       </c>
       <c r="V81" s="6"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y81" s="22">
+        <v>14</v>
+      </c>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="23"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="s">
         <v>123</v>
       </c>
@@ -2099,8 +2403,18 @@
         <v>50</v>
       </c>
       <c r="V82" s="6"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y82" s="22">
+        <v>15</v>
+      </c>
+      <c r="Z82" s="23">
+        <v>60</v>
+      </c>
+      <c r="AA82" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB82" s="23"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O83" s="17">
         <v>19</v>
       </c>
@@ -2112,8 +2426,14 @@
         <v>19</v>
       </c>
       <c r="V83" s="6"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y83" s="22">
+        <v>16</v>
+      </c>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="25"/>
+      <c r="AB83" s="23"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O84" s="17">
         <v>20</v>
       </c>
@@ -2122,8 +2442,14 @@
         <v>20</v>
       </c>
       <c r="V84" s="6"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y84" s="22">
+        <v>17</v>
+      </c>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="23"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O85" s="17">
         <v>21</v>
       </c>
@@ -2145,8 +2471,16 @@
       <c r="V85" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y85" s="22">
+        <v>18</v>
+      </c>
+      <c r="Z85" s="23">
+        <v>50</v>
+      </c>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="23"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O86" s="17">
         <v>22</v>
       </c>
@@ -2155,8 +2489,14 @@
         <v>22</v>
       </c>
       <c r="V86" s="6"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y86" s="22">
+        <v>19</v>
+      </c>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="25"/>
+      <c r="AB86" s="26"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H87">
         <v>23</v>
       </c>
@@ -2174,8 +2514,16 @@
         <v>23</v>
       </c>
       <c r="V87" s="6"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y87" s="22">
+        <v>20</v>
+      </c>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="25"/>
+      <c r="AB87" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H88">
         <v>25</v>
       </c>
@@ -2203,8 +2551,18 @@
       <c r="V88" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y88" s="22">
+        <v>21</v>
+      </c>
+      <c r="Z88" s="23">
+        <v>40</v>
+      </c>
+      <c r="AA88" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB88" s="27"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O89" s="17">
         <v>25</v>
       </c>
@@ -2213,8 +2571,16 @@
         <v>25</v>
       </c>
       <c r="V89" s="6"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y89" s="22">
+        <v>22</v>
+      </c>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="25"/>
+      <c r="AB89" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H90">
         <v>27</v>
       </c>
@@ -2232,8 +2598,14 @@
         <v>26</v>
       </c>
       <c r="V90" s="6"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y90" s="22">
+        <v>23</v>
+      </c>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="25"/>
+      <c r="AB90" s="27"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O91" s="17">
         <v>27</v>
       </c>
@@ -2252,8 +2624,20 @@
       <c r="V91" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y91" s="22">
+        <v>24</v>
+      </c>
+      <c r="Z91" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA91" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB91" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>105</v>
       </c>
@@ -2271,8 +2655,16 @@
         <v>28</v>
       </c>
       <c r="V92" s="6"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y92" s="22">
+        <v>25</v>
+      </c>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="25"/>
+      <c r="AB92" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>106</v>
       </c>
@@ -2290,8 +2682,14 @@
         <v>29</v>
       </c>
       <c r="V93" s="6"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y93" s="22">
+        <v>26</v>
+      </c>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="25"/>
+      <c r="AB93" s="27"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O94" s="17">
         <v>30</v>
       </c>
@@ -2310,8 +2708,20 @@
       <c r="V94" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y94" s="22">
+        <v>27</v>
+      </c>
+      <c r="Z94" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA94" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB94" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
@@ -2337,8 +2747,14 @@
         <v>31</v>
       </c>
       <c r="V95" s="6"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y95" s="22">
+        <v>28</v>
+      </c>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="25"/>
+      <c r="AB95" s="27"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="O96" s="17">
         <v>32</v>
@@ -2348,8 +2764,14 @@
         <v>32</v>
       </c>
       <c r="V96" s="6"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y96" s="22">
+        <v>29</v>
+      </c>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="27"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="C97" t="s">
         <v>81</v>
@@ -2378,8 +2800,18 @@
       <c r="V97" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y97" s="22">
+        <v>30</v>
+      </c>
+      <c r="Z97" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA97" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB97" s="27"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="O98" s="17">
         <v>34</v>
@@ -2389,8 +2821,14 @@
         <v>34</v>
       </c>
       <c r="V98" s="6"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y98" s="22">
+        <v>31</v>
+      </c>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="25"/>
+      <c r="AB98" s="27"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="C99" s="9" t="s">
         <v>83</v>
@@ -2406,8 +2844,16 @@
         <v>35</v>
       </c>
       <c r="V99" s="6"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y99" s="22">
+        <v>32</v>
+      </c>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="25"/>
+      <c r="AB99" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="D100" t="s">
         <v>84</v>
@@ -2433,8 +2879,18 @@
       <c r="V100" s="18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y100" s="22">
+        <v>33</v>
+      </c>
+      <c r="Z100" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA100" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB100" s="27"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="M101" t="s">
         <v>87</v>
@@ -2448,8 +2904,16 @@
       <c r="T101" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y101" s="22">
+        <v>34</v>
+      </c>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="25"/>
+      <c r="AB101" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="O102" s="17">
         <v>38</v>
@@ -2460,8 +2924,14 @@
       <c r="V102" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y102" s="22">
+        <v>35</v>
+      </c>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="25"/>
+      <c r="AB102" s="27"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="C103" s="7" t="s">
         <v>77</v>
@@ -2487,8 +2957,16 @@
       <c r="U103">
         <v>60</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y103" s="22">
+        <v>36</v>
+      </c>
+      <c r="Z103" s="23">
+        <v>70</v>
+      </c>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="27"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="E104" t="s">
         <v>94</v>
@@ -2502,8 +2980,16 @@
       <c r="V104" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y104" s="22">
+        <v>37</v>
+      </c>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="E105" t="s">
         <v>86</v>
@@ -2515,8 +3001,16 @@
       <c r="V105" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y105" s="22">
+        <v>38</v>
+      </c>
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB105" s="23"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="T106" s="17">
         <v>42</v>
@@ -2524,8 +3018,14 @@
       <c r="U106">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y106" s="22">
+        <v>39</v>
+      </c>
+      <c r="Z106" s="23"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="D107" t="s">
         <v>100</v>
@@ -2536,8 +3036,14 @@
       <c r="V107" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y107" s="22">
+        <v>40</v>
+      </c>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="E108" t="s">
         <v>80</v>
@@ -2551,8 +3057,14 @@
       <c r="T108" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y108" s="22">
+        <v>41</v>
+      </c>
+      <c r="Z108" s="26"/>
+      <c r="AA108" s="26"/>
+      <c r="AB108" s="26"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="T109" s="17">
         <v>45</v>
@@ -2560,8 +3072,14 @@
       <c r="U109">
         <v>40</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y109" s="22">
+        <v>42</v>
+      </c>
+      <c r="Z109" s="26"/>
+      <c r="AA109" s="26"/>
+      <c r="AB109" s="26"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="D110" t="s">
         <v>91</v>
@@ -2572,13 +3090,21 @@
       <c r="T110" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y110" s="22">
+        <v>43</v>
+      </c>
+      <c r="Z110" s="26"/>
+      <c r="AA110" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB110" s="26"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T111" s="17">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="T112" s="17">
         <v>48</v>
       </c>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -3,14 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C0528-9D56-4480-9A33-40C8461C1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374D2B00-151D-4A05-90AE-4DA01B1C84C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -375,14 +385,6 @@
   </si>
   <si>
     <t>小女孩因温暖值不足死亡，团灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5根火柴一个一个点共回复50温暖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>’+15s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -779,6 +781,14 @@
       </rPr>
       <t>詠唱完了、ダメージ判定</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5根火柴一个一个点共回复25温暖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+9s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1707,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA110" sqref="AA110"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1897,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1971,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s">
         <v>63</v>
@@ -1993,7 +2003,7 @@
         <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -2001,7 +2011,7 @@
         <v>74</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -2012,7 +2022,7 @@
         <v>48</v>
       </c>
       <c r="P63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -2028,7 +2038,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O65" s="17">
         <v>1</v>
@@ -2043,10 +2053,10 @@
         <v>2</v>
       </c>
       <c r="Y66" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z66" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA66" s="23"/>
       <c r="AB66" s="23"/>
@@ -2056,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="P67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q67" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y67" s="22">
         <v>0</v>
@@ -2106,7 +2116,7 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O70" s="17">
         <v>6</v>
@@ -2119,17 +2129,17 @@
         <v>3</v>
       </c>
       <c r="Z70" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AA70" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AB70" s="23"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O71" s="17">
         <v>7</v>
@@ -2144,19 +2154,19 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O72" s="17">
         <v>8</v>
@@ -2172,7 +2182,7 @@
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="H73" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O73" s="17">
         <v>9</v>
@@ -2218,10 +2228,10 @@
         <v>75</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O75" s="17">
         <v>11</v>
@@ -2237,16 +2247,16 @@
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O76" s="17">
         <v>12</v>
@@ -2255,7 +2265,7 @@
         <v>70</v>
       </c>
       <c r="Q76" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y76" s="22">
         <v>9</v>
@@ -2268,13 +2278,13 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O77" s="17">
         <v>13</v>
@@ -2291,7 +2301,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J78" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
@@ -2313,10 +2323,10 @@
         <v>72</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O79" s="17">
         <v>15</v>
@@ -2325,7 +2335,7 @@
         <v>60</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="T79" s="17">
         <v>15</v>
@@ -2334,7 +2344,7 @@
         <v>60</v>
       </c>
       <c r="V79" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y79" s="22">
         <v>12</v>
@@ -2343,13 +2353,13 @@
         <v>70</v>
       </c>
       <c r="AA79" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AB79" s="23"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G80" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O80" s="17">
         <v>16</v>
@@ -2368,7 +2378,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O81" s="17">
         <v>17</v>
@@ -2387,7 +2397,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O82" s="17">
         <v>18</v>
@@ -2410,7 +2420,7 @@
         <v>60</v>
       </c>
       <c r="AA82" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB82" s="23"/>
     </row>
@@ -2420,7 +2430,7 @@
       </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T83" s="17">
         <v>19</v>
@@ -2457,10 +2467,10 @@
         <v>40</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T85" s="17">
         <v>21</v>
@@ -2469,7 +2479,7 @@
         <v>40</v>
       </c>
       <c r="V85" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y85" s="22">
         <v>18</v>
@@ -2501,14 +2511,14 @@
         <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O87" s="17">
         <v>23</v>
       </c>
       <c r="Q87" s="6"/>
       <c r="R87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T87" s="17">
         <v>23</v>
@@ -2520,7 +2530,7 @@
       <c r="Z87" s="23"/>
       <c r="AA87" s="25"/>
       <c r="AB87" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
@@ -2528,28 +2538,28 @@
         <v>25</v>
       </c>
       <c r="J88" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O88" s="17">
         <v>24</v>
       </c>
       <c r="P88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T88" s="17">
         <v>24</v>
       </c>
       <c r="U88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y88" s="22">
         <v>21</v>
@@ -2558,7 +2568,7 @@
         <v>40</v>
       </c>
       <c r="AA88" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB88" s="27"/>
     </row>
@@ -2577,7 +2587,7 @@
       <c r="Z89" s="23"/>
       <c r="AA89" s="25"/>
       <c r="AB89" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
@@ -2585,14 +2595,14 @@
         <v>27</v>
       </c>
       <c r="I90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O90" s="17">
         <v>26</v>
       </c>
       <c r="Q90" s="6"/>
       <c r="R90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T90" s="17">
         <v>26</v>
@@ -2610,42 +2620,42 @@
         <v>27</v>
       </c>
       <c r="P91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T91" s="17">
         <v>27</v>
       </c>
       <c r="U91" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y91" s="22">
         <v>24</v>
       </c>
       <c r="Z91" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA91" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB91" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="AA91" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB91" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H92">
         <v>26</v>
       </c>
       <c r="K92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O92" s="17">
         <v>28</v>
@@ -2661,18 +2671,18 @@
       <c r="Z92" s="23"/>
       <c r="AA92" s="25"/>
       <c r="AB92" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H93">
         <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O93" s="17">
         <v>29</v>
@@ -2694,38 +2704,38 @@
         <v>30</v>
       </c>
       <c r="P94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T94" s="17">
         <v>30</v>
       </c>
       <c r="U94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V94" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y94" s="22">
         <v>27</v>
       </c>
       <c r="Z94" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA94" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB94" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="AA94" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB94" s="27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -2734,14 +2744,14 @@
         <v>31</v>
       </c>
       <c r="K95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O95" s="17">
         <v>31</v>
       </c>
       <c r="Q95" s="6"/>
       <c r="R95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T95" s="17">
         <v>31</v>
@@ -2783,31 +2793,31 @@
         <v>33</v>
       </c>
       <c r="P97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R97" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T97" s="17">
         <v>33</v>
       </c>
       <c r="U97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y97" s="22">
         <v>30</v>
       </c>
       <c r="Z97" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA97" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB97" s="27"/>
     </row>
@@ -2850,7 +2860,7 @@
       <c r="Z99" s="23"/>
       <c r="AA99" s="25"/>
       <c r="AB99" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
@@ -2868,7 +2878,7 @@
         <v>70</v>
       </c>
       <c r="R100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T100" s="17">
         <v>36</v>
@@ -2877,16 +2887,16 @@
         <v>70</v>
       </c>
       <c r="V100" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y100" s="22">
         <v>33</v>
       </c>
       <c r="Z100" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA100" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB100" s="27"/>
     </row>
@@ -2910,7 +2920,7 @@
       <c r="Z101" s="23"/>
       <c r="AA101" s="25"/>
       <c r="AB101" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
@@ -2922,7 +2932,7 @@
         <v>38</v>
       </c>
       <c r="V102" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y102" s="22">
         <v>35</v>
@@ -2969,7 +2979,7 @@
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="E104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O104" s="17">
         <v>40</v>
@@ -2978,7 +2988,7 @@
         <v>40</v>
       </c>
       <c r="V104" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y104" s="22">
         <v>37</v>
@@ -2986,7 +2996,7 @@
       <c r="Z104" s="23"/>
       <c r="AA104" s="23"/>
       <c r="AB104" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="18" x14ac:dyDescent="0.25">
@@ -2999,14 +3009,14 @@
         <v>41</v>
       </c>
       <c r="V105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y105" s="22">
         <v>38</v>
       </c>
       <c r="Z105" s="23"/>
       <c r="AA105" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB105" s="23"/>
     </row>
@@ -3028,13 +3038,13 @@
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T107" s="17">
         <v>43</v>
       </c>
       <c r="V107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Y107" s="22">
         <v>40</v>
@@ -3049,10 +3059,10 @@
         <v>80</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T108" s="17">
         <v>44</v>
@@ -3082,10 +3092,10 @@
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="D110" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="T110" s="17">
         <v>46</v>
@@ -3095,7 +3105,7 @@
       </c>
       <c r="Z110" s="26"/>
       <c r="AA110" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AB110" s="26"/>
     </row>
@@ -3112,7 +3122,7 @@
         <v>30</v>
       </c>
       <c r="V112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="20:22" x14ac:dyDescent="0.25">
@@ -3125,7 +3135,7 @@
         <v>50</v>
       </c>
       <c r="V114" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="20:22" x14ac:dyDescent="0.25">
@@ -3146,7 +3156,7 @@
         <v>53</v>
       </c>
       <c r="V117" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="20:22" x14ac:dyDescent="0.25">
